--- a/data/words/v1/介词词库.xlsx
+++ b/data/words/v1/介词词库.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaron/rd/project/zentao/go/zd/data/words/v1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37585A6E-D9EE-EF42-A71F-344BCA7CABE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B209F17-79C9-CC47-AA64-52D32F66DE5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="7140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="介词" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
